--- a/forecasts/STLA.Close_forecast.xlsx
+++ b/forecasts/STLA.Close_forecast.xlsx
@@ -383,376 +383,376 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0271064954616098</v>
+        <v>0.0249365066491495</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0166444076903847</v>
+        <v>-0.000268533961261067</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0147767370228488</v>
+        <v>-0.00490584448671838</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00500054749401737</v>
+        <v>0.00970069105907511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45813</v>
+        <v>45815</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0269517356109833</v>
+        <v>0.0249731050629663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00659773529721661</v>
+        <v>-0.0231761410368445</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00561182396453488</v>
+        <v>0.00237745634359079</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.000772748897118293</v>
+        <v>-0.00257204330112548</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45814</v>
+        <v>45816</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0268104514791002</v>
+        <v>0.0250062672104347</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0120739122391146</v>
+        <v>0.00759852439194361</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00068387791509809</v>
+        <v>-0.0143869112644326</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0366377359459606</v>
+        <v>-0.0142605435690561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45815</v>
+        <v>45817</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0266815280558502</v>
+        <v>0.0250363197155756</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0221542717204996</v>
+        <v>-0.0167729246062544</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00505610014585778</v>
+        <v>-0.0112752592475344</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.028711567228368</v>
+        <v>-0.00721773741093436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45816</v>
+        <v>45818</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0265639332640884</v>
+        <v>0.0250635574361544</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0108637075913128</v>
+        <v>0.0182615830572512</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000583676991021196</v>
+        <v>0.0293367664752768</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00435144623819965</v>
+        <v>0.0453684585707275</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0264567132535592</v>
+        <v>0.0250882466834409</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00820941183259905</v>
+        <v>-0.000678795285227273</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0042001870756916</v>
+        <v>-0.0113725609152099</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0306658216078827</v>
+        <v>0.00214806051780715</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0263589877314263</v>
+        <v>0.0251106280920821</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0210075890175238</v>
+        <v>-0.0412252475978512</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0156148567179866</v>
+        <v>0.0175308972325175</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00401378821230563</v>
+        <v>0.0108261945772214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0262699453708832</v>
+        <v>0.025130919182318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0225188009896401</v>
+        <v>-0.0108907911373033</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0226993461093236</v>
+        <v>0.0241848013572775</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.000305707935241282</v>
+        <v>0.00639589349199147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45820</v>
+        <v>45822</v>
       </c>
       <c r="B10" t="n">
-        <v>0.026188839332522</v>
+        <v>0.0251493166509396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0104785529229038</v>
+        <v>0.0174692930072909</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00468126466155492</v>
+        <v>0.00356351468069089</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0152332817987638</v>
+        <v>-0.00809901006098065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45821</v>
+        <v>45823</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0261149829266174</v>
+        <v>0.0251659984224825</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0188849160533508</v>
+        <v>-0.107036668377345</v>
       </c>
       <c r="D11" t="n">
-        <v>0.019175519921107</v>
+        <v>0.00984459793225894</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00579818197294726</v>
+        <v>-0.00475226806471235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45822</v>
+        <v>45824</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0260477454384129</v>
+        <v>0.0251811254880133</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00121666847631391</v>
+        <v>0.0197526139674034</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.00722117437554532</v>
+        <v>-0.0213085091025027</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0565826372483217</v>
+        <v>-0.0117563278211792</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45823</v>
+        <v>45825</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0259865481329587</v>
+        <v>0.0251948435553469</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00122193682596915</v>
+        <v>0.0114508261616398</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0047125876566949</v>
+        <v>0.00941843473876348</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0304150436849182</v>
+        <v>0.0168370346324965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0259308604511232</v>
+        <v>0.025207284531535</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.00669052889764674</v>
+        <v>0.0202065192442942</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0215554424664844</v>
+        <v>-0.00637077554051086</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0162737467450962</v>
+        <v>-0.00468121039073602</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0258801964040864</v>
+        <v>0.0252185678559044</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.00682005764640842</v>
+        <v>-0.00848196559734151</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0414390600215241</v>
+        <v>0.0130521219671475</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0085166516255954</v>
+        <v>-0.00503088804100121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02583411116993</v>
+        <v>0.0252288016997117</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0218033590493633</v>
+        <v>-0.133933851139199</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0176433740515355</v>
+        <v>-0.00551282699355013</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0185387454501851</v>
+        <v>-0.0208662915840193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45827</v>
+        <v>45829</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0257921978928261</v>
+        <v>0.0252380840465833</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00116289251739969</v>
+        <v>-0.0172377142024453</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0151183441129646</v>
+        <v>-0.00228567037102769</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0158886303189197</v>
+        <v>0.0241430910756564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45828</v>
+        <v>45830</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0257540846827607</v>
+        <v>0.0252465036662577</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0305602079999123</v>
+        <v>0.00877270878494825</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0186963957827416</v>
+        <v>0.0213199271701103</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0163583826436328</v>
+        <v>-0.0166459472409355</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0257194318116627</v>
+        <v>0.0252541409927167</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0303316943413577</v>
+        <v>-0.0105874406546498</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.00613738212858125</v>
+        <v>-0.000579822703223196</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00754490593070984</v>
+        <v>-0.000596901427913129</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45830</v>
+        <v>45832</v>
       </c>
       <c r="B20" t="n">
-        <v>0.025687929100175</v>
+        <v>0.0252610689165449</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.00685414063839694</v>
+        <v>-0.0120416389180871</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.00566327896586218</v>
+        <v>0.0172892154355397</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0250391026330081</v>
+        <v>-0.0282023545144742</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0256592934880731</v>
+        <v>0.0252673535002621</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00692345683032514</v>
+        <v>0.0036791238256653</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.00746553435593352</v>
+        <v>-0.00509304760760082</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.00257715669062123</v>
+        <v>0.000559194444232959</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0256332667804264</v>
+        <v>0.0252730546244214</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0126764846481701</v>
+        <v>0.00436690445784751</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0129594447187478</v>
+        <v>-0.00197771631909415</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0496909419524593</v>
+        <v>0.0264286096492835</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0256096135609822</v>
+        <v>0.0252782265714206</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00981699883261009</v>
+        <v>0.0309482978042272</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00342180481710785</v>
+        <v>0.024809725161421</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.00668191359511057</v>
+        <v>-0.0575247969522413</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts/STLA.Close_forecast.xlsx
+++ b/forecasts/STLA.Close_forecast.xlsx
@@ -389,13 +389,13 @@
         <v>0.0249365066491495</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.000268533961261067</v>
+        <v>0.00368656526087358</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00490584448671838</v>
+        <v>-0.00249513101217878</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00970069105907511</v>
+        <v>0.0146880859144682</v>
       </c>
     </row>
     <row r="3">
@@ -406,13 +406,13 @@
         <v>0.0249731050629663</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0231761410368445</v>
+        <v>-0.0200367540574877</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00237745634359079</v>
+        <v>0.0202663020228155</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00257204330112548</v>
+        <v>-0.019044651998158</v>
       </c>
     </row>
     <row r="4">
@@ -423,13 +423,13 @@
         <v>0.0250062672104347</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00759852439194361</v>
+        <v>0.00368899972887221</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0143869112644326</v>
+        <v>-0.0528222048897553</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0142605435690561</v>
+        <v>0.00464239039810589</v>
       </c>
     </row>
     <row r="5">
@@ -440,13 +440,13 @@
         <v>0.0250363197155756</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0167729246062544</v>
+        <v>-0.00974390587837028</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0112752592475344</v>
+        <v>0.00276555511423553</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.00721773741093436</v>
+        <v>0.00944228056767474</v>
       </c>
     </row>
     <row r="6">
@@ -457,13 +457,13 @@
         <v>0.0250635574361544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0182615830572512</v>
+        <v>-0.00636394405063488</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0293367664752768</v>
+        <v>-0.0477402893609901</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0453684585707275</v>
+        <v>-0.0305639544847838</v>
       </c>
     </row>
     <row r="7">
@@ -474,13 +474,13 @@
         <v>0.0250882466834409</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.000678795285227273</v>
+        <v>0.032585802178699</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0113725609152099</v>
+        <v>0.00795326804200518</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00214806051780715</v>
+        <v>-0.00583602835074879</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         <v>0.0251106280920821</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0412252475978512</v>
+        <v>0.00138548359096294</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0175308972325175</v>
+        <v>0.0128295964465838</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0108261945772214</v>
+        <v>0.0242306743973941</v>
       </c>
     </row>
     <row r="9">
@@ -508,13 +508,13 @@
         <v>0.025130919182318</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0108907911373033</v>
+        <v>0.00726463192925566</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0241848013572775</v>
+        <v>-0.0174569751017954</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00639589349199147</v>
+        <v>-0.0169290372668185</v>
       </c>
     </row>
     <row r="10">
@@ -525,13 +525,13 @@
         <v>0.0251493166509396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0174692930072909</v>
+        <v>-0.0918502021224684</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00356351468069089</v>
+        <v>-0.00674752569537452</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.00809901006098065</v>
+        <v>0.011815966981559</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +542,13 @@
         <v>0.0251659984224825</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.107036668377345</v>
+        <v>-0.0227684133984366</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00984459793225894</v>
+        <v>-0.00431735930624629</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00475226806471235</v>
+        <v>0.026438002947863</v>
       </c>
     </row>
     <row r="12">
@@ -559,13 +559,13 @@
         <v>0.0251811254880133</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0197526139674034</v>
+        <v>-0.0455565340434627</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0213085091025027</v>
+        <v>-0.0281097649518223</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0117563278211792</v>
+        <v>-0.0278448808277794</v>
       </c>
     </row>
     <row r="13">
@@ -576,13 +576,13 @@
         <v>0.0251948435553469</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0114508261616398</v>
+        <v>-0.0126767283642273</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00941843473876348</v>
+        <v>0.0263270677860406</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0168370346324965</v>
+        <v>0.0211257875411436</v>
       </c>
     </row>
     <row r="14">
@@ -593,13 +593,13 @@
         <v>0.025207284531535</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0202065192442942</v>
+        <v>-0.0212964603421641</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.00637077554051086</v>
+        <v>-0.00418710731335541</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00468121039073602</v>
+        <v>-0.0032496684029419</v>
       </c>
     </row>
     <row r="15">
@@ -610,13 +610,13 @@
         <v>0.0252185678559044</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.00848196559734151</v>
+        <v>-0.0232718589023877</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0130521219671475</v>
+        <v>-0.00832775770394465</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.00503088804100121</v>
+        <v>0.00262076677745456</v>
       </c>
     </row>
     <row r="16">
@@ -627,13 +627,13 @@
         <v>0.0252288016997117</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.133933851139199</v>
+        <v>0.0068104096574825</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00551282699355013</v>
+        <v>0.0220379413996727</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0208662915840193</v>
+        <v>-0.0022848164347932</v>
       </c>
     </row>
     <row r="17">
@@ -644,13 +644,13 @@
         <v>0.0252380840465833</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0172377142024453</v>
+        <v>0.00213562367418371</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00228567037102769</v>
+        <v>-0.00506497213647116</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0241430910756564</v>
+        <v>-0.0306095891932945</v>
       </c>
     </row>
     <row r="18">
@@ -661,13 +661,13 @@
         <v>0.0252465036662577</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00877270878494825</v>
+        <v>-0.0108324481369107</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0213199271701103</v>
+        <v>-0.000596047491678632</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0166459472409355</v>
+        <v>-0.0426054609893548</v>
       </c>
     </row>
     <row r="19">
@@ -678,13 +678,13 @@
         <v>0.0252541409927167</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0105874406546498</v>
+        <v>0.0584825579268095</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.000579822703223196</v>
+        <v>0.0211173086581525</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.000596901427913129</v>
+        <v>-0.0720187279924086</v>
       </c>
     </row>
     <row r="20">
@@ -695,13 +695,13 @@
         <v>0.0252610689165449</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0120416389180871</v>
+        <v>-0.0043421617133235</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0172892154355397</v>
+        <v>0.00265209858579695</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0282023545144742</v>
+        <v>-0.0287509327246319</v>
       </c>
     </row>
     <row r="21">
@@ -712,13 +712,13 @@
         <v>0.0252673535002621</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0036791238256653</v>
+        <v>-0.00929120161614002</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.00509304760760082</v>
+        <v>0.0369959525139035</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000559194444232959</v>
+        <v>-0.00996536105906223</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>0.0252730546244214</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00436690445784751</v>
+        <v>-0.00108706082651418</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00197771631909415</v>
+        <v>-0.0129249799679637</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0264286096492835</v>
+        <v>0.0110230310859794</v>
       </c>
     </row>
     <row r="23">
@@ -746,13 +746,13 @@
         <v>0.0252782265714206</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0309482978042272</v>
+        <v>0.0356685823665176</v>
       </c>
       <c r="D23" t="n">
-        <v>0.024809725161421</v>
+        <v>-0.00704169667062682</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0575247969522413</v>
+        <v>-0.00503771953087718</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts/STLA.Close_forecast.xlsx
+++ b/forecasts/STLA.Close_forecast.xlsx
@@ -383,376 +383,376 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0249365066491495</v>
+        <v>0.0248259901412377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00368656526087358</v>
+        <v>0.0567122100849919</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00249513101217878</v>
+        <v>0.0194324886563778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0146880859144682</v>
+        <v>-0.00847365512044275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0249731050629663</v>
+        <v>0.0248732680325272</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0200367540574877</v>
+        <v>0.00304164399043483</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0202663020228155</v>
+        <v>0.0198482221302333</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.019044651998158</v>
+        <v>0.043734538700345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0250062672104347</v>
+        <v>0.0249161685841639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00368899972887221</v>
+        <v>-0.0425669285336589</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0528222048897553</v>
+        <v>0.0366903859008045</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00464239039810589</v>
+        <v>-0.0210517985994361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0250363197155756</v>
+        <v>0.0249551037227946</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00974390587837028</v>
+        <v>0.00866454071713777</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00276555511423553</v>
+        <v>-0.0220548430357613</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00944228056767474</v>
+        <v>0.0178113305709192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0250635574361544</v>
+        <v>0.0249904454251916</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00636394405063488</v>
+        <v>0.00457102920904977</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0477402893609901</v>
+        <v>-0.00818003402361672</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0305639544847838</v>
+        <v>-0.0672771748550267</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0250882466834409</v>
+        <v>0.0250225298052023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.032585802178699</v>
+        <v>0.0095523365065466</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00795326804200518</v>
+        <v>0.0261344202593042</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00583602835074879</v>
+        <v>-0.000189792490703761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0251106280920821</v>
+        <v>0.0250516607445955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00138548359096294</v>
+        <v>0.0125232403835942</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0128295964465838</v>
+        <v>-0.0268910289641077</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0242306743973941</v>
+        <v>-0.00178795082206965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B9" t="n">
-        <v>0.025130919182318</v>
+        <v>0.0250781131254169</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00726463192925566</v>
+        <v>0.00196129360029355</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0174569751017954</v>
+        <v>0.00507331024529979</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0169290372668185</v>
+        <v>0.0311535579659754</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0251493166509396</v>
+        <v>0.0251021357130311</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0918502021224684</v>
+        <v>-0.0474312690533159</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00674752569537452</v>
+        <v>0.000205301001582185</v>
       </c>
       <c r="E10" t="n">
-        <v>0.011815966981559</v>
+        <v>-0.0188149282695555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0251659984224825</v>
+        <v>0.0251239537320264</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0227684133984366</v>
+        <v>-0.00991502775645968</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00431735930624629</v>
+        <v>0.0151440405978126</v>
       </c>
       <c r="E11" t="n">
-        <v>0.026438002947863</v>
+        <v>0.0114790384197575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0251811254880133</v>
+        <v>0.0251437711713069</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0455565340434627</v>
+        <v>0.00955924657523416</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0281097649518223</v>
+        <v>0.0282110617168989</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0278448808277794</v>
+        <v>0.000325586221720723</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0251948435553469</v>
+        <v>0.0251617728497821</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0126767283642273</v>
+        <v>0.00771370708424673</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0263270677860406</v>
+        <v>-0.0228773296088243</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0211257875411436</v>
+        <v>-0.0364962729728161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B14" t="n">
-        <v>0.025207284531535</v>
+        <v>0.0251781262699158</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0212964603421641</v>
+        <v>-0.00468315213708283</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.00418710731335541</v>
+        <v>0.0254141859983272</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0032496684029419</v>
+        <v>0.00659304914052953</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0252185678559044</v>
+        <v>0.0251929832828837</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0232718589023877</v>
+        <v>0.00188515181108453</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.00832775770394465</v>
+        <v>-0.00667698264758397</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00262076677745456</v>
+        <v>-0.0144829704470954</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0252288016997117</v>
+        <v>0.0252064815860896</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0068104096574825</v>
+        <v>0.0164189147913258</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0220379413996727</v>
+        <v>0.0513469368258331</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0022848164347932</v>
+        <v>0.0141883860949409</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0252380840465833</v>
+        <v>0.0252187460712342</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00213562367418371</v>
+        <v>0.0197831509049541</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00506497213647116</v>
+        <v>-0.0265588493739955</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0306095891932945</v>
+        <v>-0.0247059847707254</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0252465036662577</v>
+        <v>0.0252298900389252</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0108324481369107</v>
+        <v>-0.00413304023286497</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.000596047491678632</v>
+        <v>0.00715451090137601</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0426054609893548</v>
+        <v>0.043401485223229</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0252541409927167</v>
+        <v>0.0252400162939271</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0584825579268095</v>
+        <v>-0.0000478667324859705</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0211173086581525</v>
+        <v>-0.00243888057491761</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0720187279924086</v>
+        <v>-0.00619968074221251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0252610689165449</v>
+        <v>0.0252492181335037</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0043421617133235</v>
+        <v>-0.00616475544979735</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00265209858579695</v>
+        <v>-0.000199858909364179</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0287509327246319</v>
+        <v>-0.00477914370475383</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0252673535002621</v>
+        <v>0.0252575802398851</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.00929120161614002</v>
+        <v>-0.00598584031438985</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0369959525139035</v>
+        <v>0.000413243092604717</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.00996536105906223</v>
+        <v>0.0120917595111461</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0252730546244214</v>
+        <v>0.0252651794866484</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00108706082651418</v>
+        <v>0.00236795527319972</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0129249799679637</v>
+        <v>0.0155519671713414</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0110230310859794</v>
+        <v>0.00800249656064899</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0252782265714206</v>
+        <v>0.02527208566772</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0356685823665176</v>
+        <v>-0.0389297058311736</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.00704169667062682</v>
+        <v>-0.00920681307638658</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.00503771953087718</v>
+        <v>0.00741148258039157</v>
       </c>
     </row>
   </sheetData>
